--- a/2023/croatia_hnl_2023-2024.xlsx
+++ b/2023/croatia_hnl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V37"/>
+  <dimension ref="A1:V38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3861,6 +3861,98 @@
         </is>
       </c>
     </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>hnl</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45191.75</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Osijek</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
+        <v>1</v>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Varazdin</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>1</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:42</t>
+        </is>
+      </c>
+      <c r="L38" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>22/09/2023 17:51</t>
+        </is>
+      </c>
+      <c r="N38" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:42</t>
+        </is>
+      </c>
+      <c r="P38" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>22/09/2023 17:51</t>
+        </is>
+      </c>
+      <c r="R38" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:42</t>
+        </is>
+      </c>
+      <c r="T38" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>22/09/2023 17:51</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/hnl/osijek-varazdin/lvKZhpie/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/2023/croatia_hnl_2023-2024.xlsx
+++ b/2023/croatia_hnl_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V38"/>
+  <dimension ref="A1:V42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3953,6 +3953,374 @@
         </is>
       </c>
     </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>hnl</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45192.70833333334</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Istra 1961</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Gorica</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:43</t>
+        </is>
+      </c>
+      <c r="L39" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:57</t>
+        </is>
+      </c>
+      <c r="N39" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:43</t>
+        </is>
+      </c>
+      <c r="P39" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:57</t>
+        </is>
+      </c>
+      <c r="R39" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>17/09/2023 18:43</t>
+        </is>
+      </c>
+      <c r="T39" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>23/09/2023 16:57</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/hnl/istra-1961-hnk-gorica/CC5UERDE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>hnl</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45192.80208333334</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Hajduk Split</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
+        <v>1</v>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Lok. Zagreb</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>16/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L40" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:06</t>
+        </is>
+      </c>
+      <c r="N40" t="n">
+        <v>5.13</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>16/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P40" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:13</t>
+        </is>
+      </c>
+      <c r="R40" t="n">
+        <v>8.24</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>16/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T40" t="n">
+        <v>9.35</v>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>23/09/2023 19:13</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/hnl/hajduk-split-lok-zagreb/b91QF7b8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>hnl</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45193.70833333334</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>Slaven Belupo</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Rijeka</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>17/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="L41" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:59</t>
+        </is>
+      </c>
+      <c r="N41" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>17/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="P41" t="n">
+        <v>4.03</v>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:59</t>
+        </is>
+      </c>
+      <c r="R41" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>17/09/2023 20:42</t>
+        </is>
+      </c>
+      <c r="T41" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>24/09/2023 16:36</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/hnl/slaven-belupo-rijeka/6FEvh461/</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>croatia</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>hnl</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45193.80208333334</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Rudes</t>
+        </is>
+      </c>
+      <c r="G42" t="n">
+        <v>1</v>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>D. Zagreb</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>5</v>
+      </c>
+      <c r="J42" t="n">
+        <v>10.1</v>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>20/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L42" t="n">
+        <v>12.27</v>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>24/09/2023 19:13</t>
+        </is>
+      </c>
+      <c r="N42" t="n">
+        <v>5.54</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>20/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P42" t="n">
+        <v>6.23</v>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>24/09/2023 19:13</t>
+        </is>
+      </c>
+      <c r="R42" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>20/09/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T42" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>24/09/2023 19:13</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/croatia/hnl/rudes-din-zagreb/p6DriOL7/</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
